--- a/admin/modules/fileExcel/PharsalVerb1.xlsx
+++ b/admin/modules/fileExcel/PharsalVerb1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D07C78-22B2-442E-BF2E-B261280B83CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A438E-75B2-494B-BAF4-1DF40EEBE2DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="360" windowWidth="10800" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>I always run ______of money before the end off the month.</t>
   </si>
   <si>
-    <t>It’s taking me longer to get______ the operation than I thought.</t>
-  </si>
-  <si>
     <t>I have just spent two weeks looking_______an aunt of mine who is been ill.</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>across</t>
+  </si>
+  <si>
+    <t>It is taking me longer to get______ the operation than I thought.</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,13 +531,13 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -551,13 +551,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -568,16 +568,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -588,16 +588,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -608,16 +608,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -648,16 +648,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -671,13 +671,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -691,13 +691,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -711,13 +711,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>3</v>
